--- a/week 6/زبان/Skale(V3.6).xlsx
+++ b/week 6/زبان/Skale(V3.6).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\skale week\week n\زبان\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\سروش\Quiz\week 6\زبان\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="گوگل" sheetId="1" r:id="rId1"/>
@@ -2092,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="B2:K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2140,16 +2140,36 @@
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2161,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2236,47 +2256,47 @@
       </c>
       <c r="C2" s="12">
         <f>IF(گوگل!C2=کلید!B$2,3,IF(گوگل!C2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
         <f>IF(گوگل!D2=کلید!C$2,3,IF(گوگل!D2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <f>IF(گوگل!E2=کلید!D$2,3,IF(گوگل!E2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>IF(گوگل!F2=کلید!E$2,3,IF(گوگل!F2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f>IF(گوگل!G2=کلید!F$2,3,IF(گوگل!G2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <f>IF(گوگل!H2=کلید!G$2,3,IF(گوگل!H2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
         <f>IF(گوگل!I2=کلید!H$2,3,IF(گوگل!I2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
         <f>IF(گوگل!J2=کلید!I$2,3,IF(گوگل!J2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
         <f>IF(گوگل!K2=کلید!J$2,3,IF(گوگل!K2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <f>IF(گوگل!L2=کلید!K$2,3,IF(گوگل!L2="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="13">
         <f t="shared" ref="M2:M44" si="0">(SUM(C2:L2)/(30))*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2290,47 +2310,47 @@
       </c>
       <c r="C3" s="12">
         <f>IF(گوگل!C3=کلید!B$2,3,IF(گوگل!C3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
         <f>IF(گوگل!D3=کلید!C$2,3,IF(گوگل!D3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12">
         <f>IF(گوگل!E3=کلید!D$2,3,IF(گوگل!E3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
         <f>IF(گوگل!F3=کلید!E$2,3,IF(گوگل!F3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <f>IF(گوگل!G3=کلید!F$2,3,IF(گوگل!G3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <f>IF(گوگل!H3=کلید!G$2,3,IF(گوگل!H3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
         <f>IF(گوگل!I3=کلید!H$2,3,IF(گوگل!I3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="12">
         <f>IF(گوگل!J3=کلید!I$2,3,IF(گوگل!J3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f>IF(گوگل!K3=کلید!J$2,3,IF(گوگل!K3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <f>IF(گوگل!L3=کلید!K$2,3,IF(گوگل!L3="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2344,47 +2364,47 @@
       </c>
       <c r="C4" s="12">
         <f>IF(گوگل!C4=کلید!B$2,3,IF(گوگل!C4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12">
         <f>IF(گوگل!D4=کلید!C$2,3,IF(گوگل!D4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <f>IF(گوگل!E4=کلید!D$2,3,IF(گوگل!E4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="12">
         <f>IF(گوگل!F4=کلید!E$2,3,IF(گوگل!F4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
         <f>IF(گوگل!G4=کلید!F$2,3,IF(گوگل!G4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12">
         <f>IF(گوگل!H4=کلید!G$2,3,IF(گوگل!H4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12">
         <f>IF(گوگل!I4=کلید!H$2,3,IF(گوگل!I4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="12">
         <f>IF(گوگل!J4=کلید!I$2,3,IF(گوگل!J4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f>IF(گوگل!K4=کلید!J$2,3,IF(گوگل!K4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f>IF(گوگل!L4=کلید!K$2,3,IF(گوگل!L4="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2398,47 +2418,47 @@
       </c>
       <c r="C5" s="12">
         <f>IF(گوگل!C5=کلید!B$2,3,IF(گوگل!C5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <f>IF(گوگل!D5=کلید!C$2,3,IF(گوگل!D5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <f>IF(گوگل!E5=کلید!D$2,3,IF(گوگل!E5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="12">
         <f>IF(گوگل!F5=کلید!E$2,3,IF(گوگل!F5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <f>IF(گوگل!G5=کلید!F$2,3,IF(گوگل!G5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="12">
         <f>IF(گوگل!H5=کلید!G$2,3,IF(گوگل!H5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="12">
         <f>IF(گوگل!I5=کلید!H$2,3,IF(گوگل!I5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
         <f>IF(گوگل!J5=کلید!I$2,3,IF(گوگل!J5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="12">
         <f>IF(گوگل!K5=کلید!J$2,3,IF(گوگل!K5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="12">
         <f>IF(گوگل!L5=کلید!K$2,3,IF(گوگل!L5="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2452,47 +2472,47 @@
       </c>
       <c r="C6" s="12">
         <f>IF(گوگل!C6=کلید!B$2,3,IF(گوگل!C6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <f>IF(گوگل!D6=کلید!C$2,3,IF(گوگل!D6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <f>IF(گوگل!E6=کلید!D$2,3,IF(گوگل!E6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
         <f>IF(گوگل!F6=کلید!E$2,3,IF(گوگل!F6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f>IF(گوگل!G6=کلید!F$2,3,IF(گوگل!G6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
         <f>IF(گوگل!H6=کلید!G$2,3,IF(گوگل!H6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12">
         <f>IF(گوگل!I6=کلید!H$2,3,IF(گوگل!I6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
         <f>IF(گوگل!J6=کلید!I$2,3,IF(گوگل!J6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="12">
         <f>IF(گوگل!K6=کلید!J$2,3,IF(گوگل!K6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="12">
         <f>IF(گوگل!L6=کلید!K$2,3,IF(گوگل!L6="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2506,47 +2526,47 @@
       </c>
       <c r="C7" s="12">
         <f>IF(گوگل!C7=کلید!B$2,3,IF(گوگل!C7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <f>IF(گوگل!D7=کلید!C$2,3,IF(گوگل!D7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
         <f>IF(گوگل!E7=کلید!D$2,3,IF(گوگل!E7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <f>IF(گوگل!F7=کلید!E$2,3,IF(گوگل!F7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f>IF(گوگل!G7=کلید!F$2,3,IF(گوگل!G7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="12">
         <f>IF(گوگل!H7=کلید!G$2,3,IF(گوگل!H7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <f>IF(گوگل!I7=کلید!H$2,3,IF(گوگل!I7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
         <f>IF(گوگل!J7=کلید!I$2,3,IF(گوگل!J7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="12">
         <f>IF(گوگل!K7=کلید!J$2,3,IF(گوگل!K7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12">
         <f>IF(گوگل!L7=کلید!K$2,3,IF(گوگل!L7="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2560,47 +2580,47 @@
       </c>
       <c r="C8" s="12">
         <f>IF(گوگل!C8=کلید!B$2,3,IF(گوگل!C8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <f>IF(گوگل!D8=کلید!C$2,3,IF(گوگل!D8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <f>IF(گوگل!E8=کلید!D$2,3,IF(گوگل!E8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
         <f>IF(گوگل!F8=کلید!E$2,3,IF(گوگل!F8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f>IF(گوگل!G8=کلید!F$2,3,IF(گوگل!G8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
         <f>IF(گوگل!H8=کلید!G$2,3,IF(گوگل!H8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12">
         <f>IF(گوگل!I8=کلید!H$2,3,IF(گوگل!I8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
         <f>IF(گوگل!J8=کلید!I$2,3,IF(گوگل!J8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="12">
         <f>IF(گوگل!K8=کلید!J$2,3,IF(گوگل!K8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12">
         <f>IF(گوگل!L8=کلید!K$2,3,IF(گوگل!L8="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2614,47 +2634,47 @@
       </c>
       <c r="C9" s="12">
         <f>IF(گوگل!C9=کلید!B$2,3,IF(گوگل!C9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
         <f>IF(گوگل!D9=کلید!C$2,3,IF(گوگل!D9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <f>IF(گوگل!E9=کلید!D$2,3,IF(گوگل!E9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="12">
         <f>IF(گوگل!H9=کلید!G$2,3,IF(گوگل!H9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12">
         <f>IF(گوگل!I9=کلید!H$2,3,IF(گوگل!I9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <f>IF(گوگل!J9=کلید!I$2,3,IF(گوگل!J9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="12">
         <f>IF(گوگل!K9=کلید!J$2,3,IF(گوگل!K9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="12">
         <f>IF(گوگل!L9=کلید!K$2,3,IF(گوگل!L9="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2668,47 +2688,47 @@
       </c>
       <c r="C10" s="12">
         <f>IF(گوگل!C10=کلید!B$2,3,IF(گوگل!C10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f>IF(گوگل!D10=کلید!C$2,3,IF(گوگل!D10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
         <f>IF(گوگل!E10=کلید!D$2,3,IF(گوگل!E10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
         <f>IF(گوگل!F10=کلید!E$2,3,IF(گوگل!F10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f>IF(گوگل!G10=کلید!F$2,3,IF(گوگل!G10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
         <f>IF(گوگل!H10=کلید!G$2,3,IF(گوگل!H10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12">
         <f>IF(گوگل!I10=کلید!H$2,3,IF(گوگل!I10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
         <f>IF(گوگل!J10=کلید!I$2,3,IF(گوگل!J10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="12">
         <f>IF(گوگل!K10=کلید!J$2,3,IF(گوگل!K10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="12">
         <f>IF(گوگل!L10=کلید!K$2,3,IF(گوگل!L10="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2722,47 +2742,47 @@
       </c>
       <c r="C11" s="12">
         <f>IF(گوگل!C11=کلید!B$2,3,IF(گوگل!C11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
         <f>IF(گوگل!D11=کلید!C$2,3,IF(گوگل!D11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <f>IF(گوگل!E11=کلید!D$2,3,IF(گوگل!E11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12">
         <f>IF(گوگل!F11=کلید!E$2,3,IF(گوگل!F11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f>IF(گوگل!G11=کلید!F$2,3,IF(گوگل!G11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="12">
         <f>IF(گوگل!H11=کلید!G$2,3,IF(گوگل!H11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12">
         <f>IF(گوگل!I11=کلید!H$2,3,IF(گوگل!I11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
         <f>IF(گوگل!J11=کلید!I$2,3,IF(گوگل!J11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="12">
         <f>IF(گوگل!K11=کلید!J$2,3,IF(گوگل!K11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="12">
         <f>IF(گوگل!L11=کلید!K$2,3,IF(گوگل!L11="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2776,47 +2796,47 @@
       </c>
       <c r="C12" s="12">
         <f>IF(گوگل!C12=کلید!B$2,3,IF(گوگل!C12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
         <f>IF(گوگل!D12=کلید!C$2,3,IF(گوگل!D12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <f>IF(گوگل!E12=کلید!D$2,3,IF(گوگل!E12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12">
         <f>IF(گوگل!F12=کلید!E$2,3,IF(گوگل!F12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f>IF(گوگل!G12=کلید!F$2,3,IF(گوگل!G12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <f>IF(گوگل!H12=کلید!G$2,3,IF(گوگل!H12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12">
         <f>IF(گوگل!I12=کلید!H$2,3,IF(گوگل!I12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" s="12">
         <f>IF(گوگل!J12=کلید!I$2,3,IF(گوگل!J12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="12">
         <f>IF(گوگل!K12=کلید!J$2,3,IF(گوگل!K12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="12">
         <f>IF(گوگل!L12=کلید!K$2,3,IF(گوگل!L12="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2830,47 +2850,47 @@
       </c>
       <c r="C13" s="12">
         <f>IF(گوگل!C13=کلید!B$2,3,IF(گوگل!C13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12">
         <f>IF(گوگل!D13=کلید!C$2,3,IF(گوگل!D13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
         <f>IF(گوگل!E13=کلید!D$2,3,IF(گوگل!E13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f>IF(گوگل!F13=کلید!E$2,3,IF(گوگل!F13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f>IF(گوگل!G13=کلید!F$2,3,IF(گوگل!G13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12">
         <f>IF(گوگل!H13=کلید!G$2,3,IF(گوگل!H13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="12">
         <f>IF(گوگل!I13=کلید!H$2,3,IF(گوگل!I13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12">
         <f>IF(گوگل!J13=کلید!I$2,3,IF(گوگل!J13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="12">
         <f>IF(گوگل!K13=کلید!J$2,3,IF(گوگل!K13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="12">
         <f>IF(گوگل!L13=کلید!K$2,3,IF(گوگل!L13="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2884,47 +2904,47 @@
       </c>
       <c r="C14" s="12">
         <f>IF(گوگل!C14=کلید!B$2,3,IF(گوگل!C14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f>IF(گوگل!D14=کلید!C$2,3,IF(گوگل!D14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12">
         <f>IF(گوگل!E14=کلید!D$2,3,IF(گوگل!E14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12">
         <f>IF(گوگل!F14=کلید!E$2,3,IF(گوگل!F14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
         <f>IF(گوگل!G14=کلید!F$2,3,IF(گوگل!G14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="12">
         <f>IF(گوگل!H14=کلید!G$2,3,IF(گوگل!H14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12">
         <f>IF(گوگل!I14=کلید!H$2,3,IF(گوگل!I14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="12">
         <f>IF(گوگل!J14=کلید!I$2,3,IF(گوگل!J14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="12">
         <f>IF(گوگل!K14=کلید!J$2,3,IF(گوگل!K14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="12">
         <f>IF(گوگل!L14=کلید!K$2,3,IF(گوگل!L14="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2938,47 +2958,47 @@
       </c>
       <c r="C15" s="12">
         <f>IF(گوگل!C15=کلید!B$2,3,IF(گوگل!C15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>IF(گوگل!D15=کلید!C$2,3,IF(گوگل!D15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12">
         <f>IF(گوگل!E15=کلید!D$2,3,IF(گوگل!E15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12">
         <f>IF(گوگل!F15=کلید!E$2,3,IF(گوگل!F15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
         <f>IF(گوگل!G15=کلید!F$2,3,IF(گوگل!G15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="12">
         <f>IF(گوگل!H15=کلید!G$2,3,IF(گوگل!H15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12">
         <f>IF(گوگل!I15=کلید!H$2,3,IF(گوگل!I15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12">
         <f>IF(گوگل!J15=کلید!I$2,3,IF(گوگل!J15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="12">
         <f>IF(گوگل!K15=کلید!J$2,3,IF(گوگل!K15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="12">
         <f>IF(گوگل!L15=کلید!K$2,3,IF(گوگل!L15="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -2992,47 +3012,47 @@
       </c>
       <c r="C16" s="12">
         <f>IF(گوگل!C16=کلید!B$2,3,IF(گوگل!C16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <f>IF(گوگل!D16=کلید!C$2,3,IF(گوگل!D16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>IF(گوگل!E16=کلید!D$2,3,IF(گوگل!E16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
         <f>IF(گوگل!F16=کلید!E$2,3,IF(گوگل!F16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
         <f>IF(گوگل!G16=کلید!F$2,3,IF(گوگل!G16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="12">
         <f>IF(گوگل!H16=کلید!G$2,3,IF(گوگل!H16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="12">
         <f>IF(گوگل!I16=کلید!H$2,3,IF(گوگل!I16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
         <f>IF(گوگل!J16=کلید!I$2,3,IF(گوگل!J16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" s="12">
         <f>IF(گوگل!K16=کلید!J$2,3,IF(گوگل!K16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="12">
         <f>IF(گوگل!L16=کلید!K$2,3,IF(گوگل!L16="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3046,47 +3066,47 @@
       </c>
       <c r="C17" s="12">
         <f>IF(گوگل!C17=کلید!B$2,3,IF(گوگل!C17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12">
         <f>IF(گوگل!D17=کلید!C$2,3,IF(گوگل!D17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12">
         <f>IF(گوگل!E17=کلید!D$2,3,IF(گوگل!E17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <f>IF(گوگل!F17=کلید!E$2,3,IF(گوگل!F17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="12">
         <f>IF(گوگل!G17=کلید!F$2,3,IF(گوگل!G17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="12">
         <f>IF(گوگل!H17=کلید!G$2,3,IF(گوگل!H17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12">
         <f>IF(گوگل!I17=کلید!H$2,3,IF(گوگل!I17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
         <f>IF(گوگل!J17=کلید!I$2,3,IF(گوگل!J17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="12">
         <f>IF(گوگل!K17=کلید!J$2,3,IF(گوگل!K17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12">
         <f>IF(گوگل!L17=کلید!K$2,3,IF(گوگل!L17="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3100,47 +3120,47 @@
       </c>
       <c r="C18" s="12">
         <f>IF(گوگل!C18=کلید!B$2,3,IF(گوگل!C18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12">
         <f>IF(گوگل!D18=کلید!C$2,3,IF(گوگل!D18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
         <f>IF(گوگل!E18=کلید!D$2,3,IF(گوگل!E18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
         <f>IF(گوگل!F18=کلید!E$2,3,IF(گوگل!F18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <f>IF(گوگل!G18=کلید!F$2,3,IF(گوگل!G18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="12">
         <f>IF(گوگل!H18=کلید!G$2,3,IF(گوگل!H18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="12">
         <f>IF(گوگل!I18=کلید!H$2,3,IF(گوگل!I18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="12">
         <f>IF(گوگل!J18=کلید!I$2,3,IF(گوگل!J18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
         <f>IF(گوگل!K18=کلید!J$2,3,IF(گوگل!K18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="12">
         <f>IF(گوگل!L18=کلید!K$2,3,IF(گوگل!L18="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3154,47 +3174,47 @@
       </c>
       <c r="C19" s="12">
         <f>IF(گوگل!C19=کلید!B$2,3,IF(گوگل!C19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12">
         <f>IF(گوگل!D19=کلید!C$2,3,IF(گوگل!D19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
         <f>IF(گوگل!E19=کلید!D$2,3,IF(گوگل!E19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
         <f>IF(گوگل!F19=کلید!E$2,3,IF(گوگل!F19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <f>IF(گوگل!G19=کلید!F$2,3,IF(گوگل!G19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="12">
         <f>IF(گوگل!H19=کلید!G$2,3,IF(گوگل!H19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="12">
         <f>IF(گوگل!I19=کلید!H$2,3,IF(گوگل!I19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
         <f>IF(گوگل!J19=کلید!I$2,3,IF(گوگل!J19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" s="12">
         <f>IF(گوگل!K19=کلید!J$2,3,IF(گوگل!K19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" s="12">
         <f>IF(گوگل!L19=کلید!K$2,3,IF(گوگل!L19="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3208,47 +3228,47 @@
       </c>
       <c r="C20" s="12">
         <f>IF(گوگل!C20=کلید!B$2,3,IF(گوگل!C20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12">
         <f>IF(گوگل!D20=کلید!C$2,3,IF(گوگل!D20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12">
         <f>IF(گوگل!E20=کلید!D$2,3,IF(گوگل!E20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12">
         <f>IF(گوگل!F20=کلید!E$2,3,IF(گوگل!F20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="12">
         <f>IF(گوگل!G20=کلید!F$2,3,IF(گوگل!G20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
         <f>IF(گوگل!H20=کلید!G$2,3,IF(گوگل!H20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="12">
         <f>IF(گوگل!I20=کلید!H$2,3,IF(گوگل!I20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="12">
         <f>IF(گوگل!J20=کلید!I$2,3,IF(گوگل!J20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="12">
         <f>IF(گوگل!K20=کلید!J$2,3,IF(گوگل!K20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="12">
         <f>IF(گوگل!L20=کلید!K$2,3,IF(گوگل!L20="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3262,47 +3282,47 @@
       </c>
       <c r="C21" s="12">
         <f>IF(گوگل!C21=کلید!B$2,3,IF(گوگل!C21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12">
         <f>IF(گوگل!D21=کلید!C$2,3,IF(گوگل!D21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12">
         <f>IF(گوگل!E21=کلید!D$2,3,IF(گوگل!E21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12">
         <f>IF(گوگل!F21=کلید!E$2,3,IF(گوگل!F21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12">
         <f>IF(گوگل!G21=کلید!F$2,3,IF(گوگل!G21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <f>IF(گوگل!H21=کلید!G$2,3,IF(گوگل!H21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="12">
         <f>IF(گوگل!I21=کلید!H$2,3,IF(گوگل!I21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
         <f>IF(گوگل!J21=کلید!I$2,3,IF(گوگل!J21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="12">
         <f>IF(گوگل!K21=کلید!J$2,3,IF(گوگل!K21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
         <f>IF(گوگل!L21=کلید!K$2,3,IF(گوگل!L21="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3316,47 +3336,47 @@
       </c>
       <c r="C22" s="12">
         <f>IF(گوگل!C22=کلید!B$2,3,IF(گوگل!C22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12">
         <f>IF(گوگل!D22=کلید!C$2,3,IF(گوگل!D22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12">
         <f>IF(گوگل!E22=کلید!D$2,3,IF(گوگل!E22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="12">
         <f>IF(گوگل!F22=کلید!E$2,3,IF(گوگل!F22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="12">
         <f>IF(گوگل!G22=کلید!F$2,3,IF(گوگل!G22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="12">
         <f>IF(گوگل!H22=کلید!G$2,3,IF(گوگل!H22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12">
         <f>IF(گوگل!I22=کلید!H$2,3,IF(گوگل!I22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
         <f>IF(گوگل!J22=کلید!I$2,3,IF(گوگل!J22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="12">
         <f>IF(گوگل!K22=کلید!J$2,3,IF(گوگل!K22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12">
         <f>IF(گوگل!L22=کلید!K$2,3,IF(گوگل!L22="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3370,47 +3390,47 @@
       </c>
       <c r="C23" s="12">
         <f>IF(گوگل!C23=کلید!B$2,3,IF(گوگل!C23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12">
         <f>IF(گوگل!D23=کلید!C$2,3,IF(گوگل!D23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12">
         <f>IF(گوگل!E23=کلید!D$2,3,IF(گوگل!E23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
         <f>IF(گوگل!F23=کلید!E$2,3,IF(گوگل!F23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12">
         <f>IF(گوگل!G23=کلید!F$2,3,IF(گوگل!G23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12">
         <f>IF(گوگل!H23=کلید!G$2,3,IF(گوگل!H23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="12">
         <f>IF(گوگل!I23=کلید!H$2,3,IF(گوگل!I23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="12">
         <f>IF(گوگل!J23=کلید!I$2,3,IF(گوگل!J23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23" s="12">
         <f>IF(گوگل!K23=کلید!J$2,3,IF(گوگل!K23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12">
         <f>IF(گوگل!L23=کلید!K$2,3,IF(گوگل!L23="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3424,47 +3444,47 @@
       </c>
       <c r="C24" s="12">
         <f>IF(گوگل!C24=کلید!B$2,3,IF(گوگل!C24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="12">
         <f>IF(گوگل!D24=کلید!C$2,3,IF(گوگل!D24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="12">
         <f>IF(گوگل!E24=کلید!D$2,3,IF(گوگل!E24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="12">
         <f>IF(گوگل!F24=کلید!E$2,3,IF(گوگل!F24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="12">
         <f>IF(گوگل!G24=کلید!F$2,3,IF(گوگل!G24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="12">
         <f>IF(گوگل!H24=کلید!G$2,3,IF(گوگل!H24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" s="12">
         <f>IF(گوگل!I24=کلید!H$2,3,IF(گوگل!I24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
         <f>IF(گوگل!J24=کلید!I$2,3,IF(گوگل!J24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" s="12">
         <f>IF(گوگل!K24=کلید!J$2,3,IF(گوگل!K24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="12">
         <f>IF(گوگل!L24=کلید!K$2,3,IF(گوگل!L24="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3478,47 +3498,47 @@
       </c>
       <c r="C25" s="12">
         <f>IF(گوگل!C25=کلید!B$2,3,IF(گوگل!C25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="12">
         <f>IF(گوگل!D25=کلید!C$2,3,IF(گوگل!D25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="12">
         <f>IF(گوگل!E25=کلید!D$2,3,IF(گوگل!E25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="12">
         <f>IF(گوگل!F25=کلید!E$2,3,IF(گوگل!F25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
         <f>IF(گوگل!G25=کلید!F$2,3,IF(گوگل!G25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="12">
         <f>IF(گوگل!H25=کلید!G$2,3,IF(گوگل!H25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="12">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="12">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="12">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3532,47 +3552,47 @@
       </c>
       <c r="C26" s="12">
         <f>IF(گوگل!C26=کلید!B$2,3,IF(گوگل!C26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26" s="12">
         <f>IF(گوگل!D26=کلید!C$2,3,IF(گوگل!D26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="12">
         <f>IF(گوگل!E26=کلید!D$2,3,IF(گوگل!E26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
         <f>IF(گوگل!F26=کلید!E$2,3,IF(گوگل!F26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12">
         <f>IF(گوگل!G26=کلید!F$2,3,IF(گوگل!G26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" s="12">
         <f>IF(گوگل!H26=کلید!G$2,3,IF(گوگل!H26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" s="12">
         <f>IF(گوگل!I26=کلید!H$2,3,IF(گوگل!I26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12">
         <f>IF(گوگل!J26=کلید!I$2,3,IF(گوگل!J26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="12">
         <f>IF(گوگل!K26=کلید!J$2,3,IF(گوگل!K26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" s="12">
         <f>IF(گوگل!L26=کلید!K$2,3,IF(گوگل!L26="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3586,47 +3606,47 @@
       </c>
       <c r="C27" s="12">
         <f>IF(گوگل!C27=کلید!B$2,3,IF(گوگل!C27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12">
         <f>IF(گوگل!D27=کلید!C$2,3,IF(گوگل!D27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="12">
         <f>IF(گوگل!E27=کلید!D$2,3,IF(گوگل!E27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="12">
         <f>IF(گوگل!F27=کلید!E$2,3,IF(گوگل!F27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" s="12">
         <f>IF(گوگل!G27=کلید!F$2,3,IF(گوگل!G27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="12">
         <f>IF(گوگل!H27=کلید!G$2,3,IF(گوگل!H27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" s="12">
         <f>IF(گوگل!I27=کلید!H$2,3,IF(گوگل!I27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27" s="12">
         <f>IF(گوگل!J27=کلید!I$2,3,IF(گوگل!J27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" s="12">
         <f>IF(گوگل!K27=کلید!J$2,3,IF(گوگل!K27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="12">
         <f>IF(گوگل!L27=کلید!K$2,3,IF(گوگل!L27="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3640,47 +3660,47 @@
       </c>
       <c r="C28" s="12">
         <f>IF(گوگل!C28=کلید!B$2,3,IF(گوگل!C28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="12">
         <f>IF(گوگل!D28=کلید!C$2,3,IF(گوگل!D28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="12">
         <f>IF(گوگل!E28=کلید!D$2,3,IF(گوگل!E28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="12">
         <f>IF(گوگل!F28=کلید!E$2,3,IF(گوگل!F28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <f>IF(گوگل!G28=کلید!F$2,3,IF(گوگل!G28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" s="12">
         <f>IF(گوگل!H28=کلید!G$2,3,IF(گوگل!H28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" s="12">
         <f>IF(گوگل!I28=کلید!H$2,3,IF(گوگل!I28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="12">
         <f>IF(گوگل!J28=کلید!I$2,3,IF(گوگل!J28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="12">
         <f>IF(گوگل!K28=کلید!J$2,3,IF(گوگل!K28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12">
         <f>IF(گوگل!L28=کلید!K$2,3,IF(گوگل!L28="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3694,47 +3714,47 @@
       </c>
       <c r="C29" s="12">
         <f>IF(گوگل!C29=کلید!B$2,3,IF(گوگل!C29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="12">
         <f>IF(گوگل!D29=کلید!C$2,3,IF(گوگل!D29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="12">
         <f>IF(گوگل!E29=کلید!D$2,3,IF(گوگل!E29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" s="12">
         <f>IF(گوگل!F29=کلید!E$2,3,IF(گوگل!F29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12">
         <f>IF(گوگل!G29=کلید!F$2,3,IF(گوگل!G29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="12">
         <f>IF(گوگل!H29=کلید!G$2,3,IF(گوگل!H29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12">
         <f>IF(گوگل!I29=کلید!H$2,3,IF(گوگل!I29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29" s="12">
         <f>IF(گوگل!J29=کلید!I$2,3,IF(گوگل!J29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="12">
         <f>IF(گوگل!K29=کلید!J$2,3,IF(گوگل!K29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12">
         <f>IF(گوگل!L29=کلید!K$2,3,IF(گوگل!L29="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3748,47 +3768,47 @@
       </c>
       <c r="C30" s="12">
         <f>IF(گوگل!C30=کلید!B$2,3,IF(گوگل!C30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="12">
         <f>IF(گوگل!D30=کلید!C$2,3,IF(گوگل!D30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
         <f>IF(گوگل!E30=کلید!D$2,3,IF(گوگل!E30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
         <f>IF(گوگل!F30=کلید!E$2,3,IF(گوگل!F30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
         <f>IF(گوگل!G30=کلید!F$2,3,IF(گوگل!G30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
         <f>IF(گوگل!H30=کلید!G$2,3,IF(گوگل!H30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12">
         <f>IF(گوگل!I30=کلید!H$2,3,IF(گوگل!I30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12">
         <f>IF(گوگل!J30=کلید!I$2,3,IF(گوگل!J30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
         <f>IF(گوگل!K30=کلید!J$2,3,IF(گوگل!K30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12">
         <f>IF(گوگل!L30=کلید!K$2,3,IF(گوگل!L30="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3802,47 +3822,47 @@
       </c>
       <c r="C31" s="12">
         <f>IF(گوگل!C31=کلید!B$2,3,IF(گوگل!C31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" s="12">
         <f>IF(گوگل!D31=کلید!C$2,3,IF(گوگل!D31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12">
         <f>IF(گوگل!E31=کلید!D$2,3,IF(گوگل!E31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31" s="12">
         <f>IF(گوگل!F31=کلید!E$2,3,IF(گوگل!F31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12">
         <f>IF(گوگل!G31=کلید!F$2,3,IF(گوگل!G31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12">
         <f>IF(گوگل!H31=کلید!G$2,3,IF(گوگل!H31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" s="12">
         <f>IF(گوگل!I31=کلید!H$2,3,IF(گوگل!I31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" s="12">
         <f>IF(گوگل!J31=کلید!I$2,3,IF(گوگل!J31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="12">
         <f>IF(گوگل!K31=کلید!J$2,3,IF(گوگل!K31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12">
         <f>IF(گوگل!L31=کلید!K$2,3,IF(گوگل!L31="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3856,47 +3876,47 @@
       </c>
       <c r="C32" s="12">
         <f>IF(گوگل!C32=کلید!B$2,3,IF(گوگل!C32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" s="12">
         <f>IF(گوگل!D32=کلید!C$2,3,IF(گوگل!D32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="12">
         <f>IF(گوگل!E32=کلید!D$2,3,IF(گوگل!E32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" s="12">
         <f>IF(گوگل!F32=کلید!E$2,3,IF(گوگل!F32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="12">
         <f>IF(گوگل!G32=کلید!F$2,3,IF(گوگل!G32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="12">
         <f>IF(گوگل!H32=کلید!G$2,3,IF(گوگل!H32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" s="12">
         <f>IF(گوگل!I32=کلید!H$2,3,IF(گوگل!I32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="12">
         <f>IF(گوگل!J32=کلید!I$2,3,IF(گوگل!J32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K32" s="12">
         <f>IF(گوگل!K32=کلید!J$2,3,IF(گوگل!K32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="12">
         <f>IF(گوگل!L32=کلید!K$2,3,IF(گوگل!L32="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3910,47 +3930,47 @@
       </c>
       <c r="C33" s="12">
         <f>IF(گوگل!C33=کلید!B$2,3,IF(گوگل!C33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="12">
         <f>IF(گوگل!D33=کلید!C$2,3,IF(گوگل!D33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="12">
         <f>IF(گوگل!E33=کلید!D$2,3,IF(گوگل!E33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="12">
         <f>IF(گوگل!F33=کلید!E$2,3,IF(گوگل!F33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
         <f>IF(گوگل!G33=کلید!F$2,3,IF(گوگل!G33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f>IF(گوگل!H33=کلید!G$2,3,IF(گوگل!H33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12">
         <f>IF(گوگل!I33=کلید!H$2,3,IF(گوگل!I33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f>IF(گوگل!J33=کلید!I$2,3,IF(گوگل!J33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f>IF(گوگل!K33=کلید!J$2,3,IF(گوگل!K33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f>IF(گوگل!L33=کلید!K$2,3,IF(گوگل!L33="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -3964,47 +3984,47 @@
       </c>
       <c r="C34" s="12">
         <f>IF(گوگل!C34=کلید!B$2,3,IF(گوگل!C34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12">
         <f>IF(گوگل!D34=کلید!C$2,3,IF(گوگل!D34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" s="12">
         <f>IF(گوگل!E34=کلید!D$2,3,IF(گوگل!E34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="12">
         <f>IF(گوگل!F34=کلید!E$2,3,IF(گوگل!F34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="12">
         <f>IF(گوگل!G34=کلید!F$2,3,IF(گوگل!G34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="12">
         <f>IF(گوگل!H34=کلید!G$2,3,IF(گوگل!H34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="12">
         <f>IF(گوگل!I34=کلید!H$2,3,IF(گوگل!I34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="12">
         <f>IF(گوگل!J34=کلید!I$2,3,IF(گوگل!J34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="12">
         <f>IF(گوگل!K34=کلید!J$2,3,IF(گوگل!K34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" s="12">
         <f>IF(گوگل!L34=کلید!K$2,3,IF(گوگل!L34="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4018,47 +4038,47 @@
       </c>
       <c r="C35" s="12">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="12">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" s="12">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" s="12">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="12">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="12">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="12">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4072,47 +4092,47 @@
       </c>
       <c r="C36" s="12">
         <f>IF(گوگل!C36=کلید!B$2,3,IF(گوگل!C36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" s="12">
         <f>IF(گوگل!D36=کلید!C$2,3,IF(گوگل!D36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="12">
         <f>IF(گوگل!E36=کلید!D$2,3,IF(گوگل!E36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12">
         <f>IF(گوگل!F36=کلید!E$2,3,IF(گوگل!F36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12">
         <f>IF(گوگل!G36=کلید!F$2,3,IF(گوگل!G36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12">
         <f>IF(گوگل!H36=کلید!G$2,3,IF(گوگل!H36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="12">
         <f>IF(گوگل!I36=کلید!H$2,3,IF(گوگل!I36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="12">
         <f>IF(گوگل!J36=کلید!I$2,3,IF(گوگل!J36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="12">
         <f>IF(گوگل!K36=کلید!J$2,3,IF(گوگل!K36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12">
         <f>IF(گوگل!L36=کلید!K$2,3,IF(گوگل!L36="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4126,47 +4146,47 @@
       </c>
       <c r="C37" s="12">
         <f>IF(گوگل!C37=کلید!B$2,3,IF(گوگل!C37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12">
         <f>IF(گوگل!D37=کلید!C$2,3,IF(گوگل!D37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12">
         <f>IF(گوگل!E37=کلید!D$2,3,IF(گوگل!E37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12">
         <f>IF(گوگل!F37=کلید!E$2,3,IF(گوگل!F37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12">
         <f>IF(گوگل!G37=کلید!F$2,3,IF(گوگل!G37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12">
         <f>IF(گوگل!H37=کلید!G$2,3,IF(گوگل!H37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12">
         <f>IF(گوگل!I37=کلید!H$2,3,IF(گوگل!I37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="12">
         <f>IF(گوگل!J37=کلید!I$2,3,IF(گوگل!J37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="12">
         <f>IF(گوگل!K37=کلید!J$2,3,IF(گوگل!K37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12">
         <f>IF(گوگل!L37=کلید!K$2,3,IF(گوگل!L37="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4180,47 +4200,47 @@
       </c>
       <c r="C38" s="12">
         <f>IF(گوگل!C38=کلید!B$2,3,IF(گوگل!C38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="12">
         <f>IF(گوگل!D38=کلید!C$2,3,IF(گوگل!D38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="12">
         <f>IF(گوگل!E38=کلید!D$2,3,IF(گوگل!E38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
         <f>IF(گوگل!F38=کلید!E$2,3,IF(گوگل!F38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12">
         <f>IF(گوگل!G38=کلید!F$2,3,IF(گوگل!G38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="12">
         <f>IF(گوگل!H38=کلید!G$2,3,IF(گوگل!H38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" s="12">
         <f>IF(گوگل!I38=کلید!H$2,3,IF(گوگل!I38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" s="12">
         <f>IF(گوگل!J38=کلید!I$2,3,IF(گوگل!J38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K38" s="12">
         <f>IF(گوگل!K38=کلید!J$2,3,IF(گوگل!K38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12">
         <f>IF(گوگل!L38=کلید!K$2,3,IF(گوگل!L38="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4234,47 +4254,47 @@
       </c>
       <c r="C39" s="12">
         <f>IF(گوگل!C39=کلید!B$2,3,IF(گوگل!C39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39" s="12">
         <f>IF(گوگل!D39=کلید!C$2,3,IF(گوگل!D39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="12">
         <f>IF(گوگل!E39=کلید!D$2,3,IF(گوگل!E39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12">
         <f>IF(گوگل!F39=کلید!E$2,3,IF(گوگل!F39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" s="12">
         <f>IF(گوگل!G39=کلید!F$2,3,IF(گوگل!G39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12">
         <f>IF(گوگل!H39=کلید!G$2,3,IF(گوگل!H39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" s="12">
         <f>IF(گوگل!I39=کلید!H$2,3,IF(گوگل!I39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" s="12">
         <f>IF(گوگل!J39=کلید!I$2,3,IF(گوگل!J39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="12">
         <f>IF(گوگل!K39=کلید!J$2,3,IF(گوگل!K39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" s="12">
         <f>IF(گوگل!L39=کلید!K$2,3,IF(گوگل!L39="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4288,47 +4308,47 @@
       </c>
       <c r="C40" s="12">
         <f>IF(گوگل!C40=کلید!B$2,3,IF(گوگل!C40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12">
         <f>IF(گوگل!D40=کلید!C$2,3,IF(گوگل!D40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12">
         <f>IF(گوگل!E40=کلید!D$2,3,IF(گوگل!E40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
         <f>IF(گوگل!F40=کلید!E$2,3,IF(گوگل!F40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="12">
         <f>IF(گوگل!G40=کلید!F$2,3,IF(گوگل!G40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="12">
         <f>IF(گوگل!H40=کلید!G$2,3,IF(گوگل!H40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="12">
         <f>IF(گوگل!I40=کلید!H$2,3,IF(گوگل!I40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" s="12">
         <f>IF(گوگل!J40=کلید!I$2,3,IF(گوگل!J40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40" s="12">
         <f>IF(گوگل!K40=کلید!J$2,3,IF(گوگل!K40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="12">
         <f>IF(گوگل!L40=کلید!K$2,3,IF(گوگل!L40="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4342,47 +4362,47 @@
       </c>
       <c r="C41" s="12">
         <f>IF(گوگل!C41=کلید!B$2,3,IF(گوگل!C41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12">
         <f>IF(گوگل!D41=کلید!C$2,3,IF(گوگل!D41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12">
         <f>IF(گوگل!E41=کلید!D$2,3,IF(گوگل!E41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12">
         <f>IF(گوگل!F41=کلید!E$2,3,IF(گوگل!F41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="12">
         <f>IF(گوگل!G41=کلید!F$2,3,IF(گوگل!G41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" s="12">
         <f>IF(گوگل!H41=کلید!G$2,3,IF(گوگل!H41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12">
         <f>IF(گوگل!I41=کلید!H$2,3,IF(گوگل!I41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" s="12">
         <f>IF(گوگل!J41=کلید!I$2,3,IF(گوگل!J41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="12">
         <f>IF(گوگل!K41=کلید!J$2,3,IF(گوگل!K41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="12">
         <f>IF(گوگل!L41=کلید!K$2,3,IF(گوگل!L41="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4396,47 +4416,47 @@
       </c>
       <c r="C42" s="12">
         <f>IF(گوگل!C42=کلید!B$2,3,IF(گوگل!C42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" s="12">
         <f>IF(گوگل!D42=کلید!C$2,3,IF(گوگل!D42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="12">
         <f>IF(گوگل!E42=کلید!D$2,3,IF(گوگل!E42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" s="12">
         <f>IF(گوگل!F42=کلید!E$2,3,IF(گوگل!F42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
         <f>IF(گوگل!G42=کلید!F$2,3,IF(گوگل!G42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="12">
         <f>IF(گوگل!H42=کلید!G$2,3,IF(گوگل!H42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" s="12">
         <f>IF(گوگل!I42=کلید!H$2,3,IF(گوگل!I42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="12">
         <f>IF(گوگل!J42=کلید!I$2,3,IF(گوگل!J42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="12">
         <f>IF(گوگل!K42=کلید!J$2,3,IF(گوگل!K42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="12">
         <f>IF(گوگل!L42=کلید!K$2,3,IF(گوگل!L42="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4450,47 +4470,47 @@
       </c>
       <c r="C43" s="12">
         <f>IF(گوگل!C43=کلید!B$2,3,IF(گوگل!C43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D43" s="12">
         <f>IF(گوگل!D43=کلید!C$2,3,IF(گوگل!D43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" s="12">
         <f>IF(گوگل!E43=کلید!D$2,3,IF(گوگل!E43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12">
         <f>IF(گوگل!F43=کلید!E$2,3,IF(گوگل!F43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12">
         <f>IF(گوگل!G43=کلید!F$2,3,IF(گوگل!G43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" s="12">
         <f>IF(گوگل!H43=کلید!G$2,3,IF(گوگل!H43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" s="12">
         <f>IF(گوگل!I43=کلید!H$2,3,IF(گوگل!I43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J43" s="12">
         <f>IF(گوگل!J43=کلید!I$2,3,IF(گوگل!J43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" s="12">
         <f>IF(گوگل!K43=کلید!J$2,3,IF(گوگل!K43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="12">
         <f>IF(گوگل!L43=کلید!K$2,3,IF(گوگل!L43="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -4504,47 +4524,47 @@
       </c>
       <c r="C44" s="12">
         <f>IF(گوگل!C44=کلید!B$2,3,IF(گوگل!C44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D44" s="12">
         <f>IF(گوگل!D44=کلید!C$2,3,IF(گوگل!D44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>IF(گوگل!E44=کلید!D$2,3,IF(گوگل!E44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12">
         <f>IF(گوگل!F44=کلید!E$2,3,IF(گوگل!F44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="12">
         <f>IF(گوگل!G44=کلید!F$2,3,IF(گوگل!G44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>IF(گوگل!H44=کلید!G$2,3,IF(گوگل!H44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="12">
         <f>IF(گوگل!I44=کلید!H$2,3,IF(گوگل!I44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" s="12">
         <f>IF(گوگل!J44=کلید!I$2,3,IF(گوگل!J44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="12">
         <f>IF(گوگل!K44=کلید!J$2,3,IF(گوگل!K44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="12">
         <f>IF(گوگل!L44=کلید!K$2,3,IF(گوگل!L44="",0,-1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -7993,43 +8013,43 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
@@ -11156,43 +11176,43 @@
       </c>
       <c r="E44" s="39">
         <f>کلید!B2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="39">
         <f>کلید!C2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="39">
         <f>کلید!D2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="39">
         <f>کلید!E2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="39">
         <f>کلید!F2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="39">
         <f>کلید!G2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="39">
         <f>کلید!H2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="39">
         <f>کلید!I2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" s="39">
         <f>کلید!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="39">
         <f>کلید!K2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" s="39" t="s">
         <v>53</v>
